--- a/biology/Botanique/Cocompostage/Cocompostage.xlsx
+++ b/biology/Botanique/Cocompostage/Cocompostage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cocompostage à la ferme est un mode de gestion de proximité des déchets organiques d'une collectivité, le plus souvent des déchets verts (tonte, élagage, entretien des jardins…), par un groupe d'agriculteurs éleveurs, en compostage avec leurs effluents d'élevage.
 Participer à une opération de cocompostage à la ferme peut présenter plusieurs intérêts non négligeables pour l'agriculteur.
@@ -512,7 +524,9 @@
           <t>Collecte des déchets verts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première étape d'une opération de cocompostage à la ferme commence au point d'apport des déchets verts, c'est-à-dire le plus souvent dans les déchèterie. 
 Pour garantir la qualité du compost fini, et donc préserver la qualité des sols, il est indispensable que les déchets verts soient de bonne qualité. 
@@ -546,7 +560,9 @@
           <t>Broyage des déchets verts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matériel utilisé nécessite un espace suffisant pour réaliser un chantier le plus efficace possible ; le broyat obtenu devra être peu grossier, en évitant plus particulièrement le broyage de souches ou de troncs d'arbres d'un diamètre supérieur à 15 cm ; même si le broyage de déchets verts secs permet d'obtenir une meilleure efficacité du broyeur, il sera alors nécessaire pour l'agriculteur de compléter par un apport d'eau pour bien lancer le compostage lors du mélange avec des effluents agricoles plutôt secs (fumiers de volailles, de brebis ou de moutons).
 </t>
@@ -577,7 +593,9 @@
           <t>Criblage des déchets verts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains cas, il pourra être nécessaire d'envisager un criblage du cocompost avant épandage afin d'évacuer les morceaux de bois trop grossiers qui n'auront pu être correctement dégradés par le compostage ; ceci pourra être nécessaire en cas de broyage trop grossier, de valorisation sur cultures particulières (prairie, maraîchage) ou d'épandage avec un matériel spécifique (épandeur latéral pour arbres fruitiers).
 </t>
@@ -608,7 +626,9 @@
           <t>Procédés du cocompostage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le compostage est un procédé de dégradation aérobie d'une matière organique. Outre le mélange entre déchets verts et effluents d'élevage, l'un des enjeux techniques fondamentaux va être l'aération du mélange.
 Le cocompostage peut se réaliser de différentes façons : 
@@ -642,7 +662,9 @@
           <t>Épandage des cocomposts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chantier d'épandage de cocompost est fortement facilité par rapport à l'épandage des fumiers bruts : produits plus homogène, dans certains cas plus secs ; le matériel à utiliser dépendra de la dose envisagée : épandeur à hérissons verticaux pour des doses importantes (10 à 30 tonnes par hectare), épandeur à hérissons avec table d'épandage pour des doses faibles (1 à 5 tonnes par hectare).
 </t>
